--- a/PS-250/Lab4/Lab4_Work.xlsx
+++ b/PS-250/Lab4/Lab4_Work.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Github\Fall_2018_Homework\PS-250\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A46DC5FF-8D60-4781-BB2C-E48763245A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF5AF9-F339-4575-A59C-333845D3E93D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="25770" windowHeight="13560" xr2:uid="{8FADD37C-FCA6-8C41-8761-D81F0C976274}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="25770" windowHeight="13560" activeTab="1" xr2:uid="{8FADD37C-FCA6-8C41-8761-D81F0C976274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>Constants</t>
   </si>
@@ -133,13 +134,124 @@
   </si>
   <si>
     <t>T @ 5degrees for length1 with 100g</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Displacement</t>
+  </si>
+  <si>
+    <t>ln(Period)</t>
+  </si>
+  <si>
+    <t>ln(Length)</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Y</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Standard Residuals</t>
+  </si>
+  <si>
+    <t>K = -1.46168</t>
+  </si>
+  <si>
+    <t>n = 0.469835</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +264,14 @@
       <color theme="1"/>
       <name val="Roboto Light"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,14 +289,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -193,6 +341,3566 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Period Vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Displacement</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.1077790105875263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.146242264100806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.046551069056541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.741119668046025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.163578708066936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0426315789473684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0526315789473681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-329E-441A-A7BC-7C7023CF5CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="249727728"/>
+        <c:axId val="249728056"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$2:$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>9.1077790105875263</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18.146242264100806</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>27.046551069056541</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>35.741119668046025</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44.163578708066936</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$2:$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>9.1077790105875263</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18.146242264100806</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>27.046551069056541</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>35.741119668046025</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44.163578708066936</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-329E-441A-A7BC-7C7023CF5CD7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="249727728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Displacement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249728056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="249728056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Period</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249727728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Period Vs. Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Period</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$16:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1663-46FF-97FA-A4BCA8F21F6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="521829976"/>
+        <c:axId val="521826696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Length</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$16:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>101.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>92.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>83.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>74.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>69</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$16:$B$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>101.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>92.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>83.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>74.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>69</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-1663-46FF-97FA-A4BCA8F21F6A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="521829976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521826696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521826696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Period</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521829976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ln(Period) Vs. ln(Length)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(Period)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$30:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6200587984818418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5272086445183799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4212473478271628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3107991253855138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2341065045972597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$30:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.70309751141311339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67294447324242579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61518563909023349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56531380905006046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52472852893498212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C54-409E-ADA5-790E09CC095A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="147850400"/>
+        <c:axId val="147853352"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ln(Length)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$30:$B$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>4.6200587984818418</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.5272086445183799</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.4212473478271628</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.3107991253855138</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.2341065045972597</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$30:$B$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>4.6200587984818418</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.5272086445183799</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.4212473478271628</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.3107991253855138</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.2341065045972597</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-0C54-409E-ADA5-790E09CC095A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="147850400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(Length)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="147853352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="147853352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(Period)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="147850400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1328737</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E0D76E-D51C-4A13-9799-283670FBEAA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523D6891-CEFC-4B71-8F46-5A8CA20985E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4268C4-6051-41DA-BD9E-480AE38469D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63EE814-A031-5F41-8CB1-158CBFFBE6E3}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1333,4 +5041,674 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428042F5-4FF8-407B-862A-BD5EBB764185}">
+  <dimension ref="A1:K74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9.1077790105875263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18.146242264100806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2.0426315789473684</v>
+      </c>
+      <c r="B4" s="1">
+        <v>27.046551069056541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2.0526315789473681</v>
+      </c>
+      <c r="B5" s="1">
+        <v>35.741119668046025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44.163578708066936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="B16" s="1">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="B17" s="1">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="B18" s="1">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="B19" s="1">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="B20" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f>LN(A16)</f>
+        <v>0.70309751141311339</v>
+      </c>
+      <c r="B30" s="1">
+        <f>LN(B16)</f>
+        <v>4.6200587984818418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" ref="A31:B35" si="0">LN(A17)</f>
+        <v>0.67294447324242579</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5272086445183799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61518563909023349</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4212473478271628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56531380905006046</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3107991253855138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52472852893498212</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2341065045972597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.99761490238097095</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.9952354934525941</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.99364732460345884</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5.8744041880341722E-3</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.162503566003952E-2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2.162503566003952E-2</v>
+      </c>
+      <c r="G53" s="2">
+        <v>626.6559717466281</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1.3977762583559109E-4</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1.0352587369318027E-4</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3.4508624564393424E-5</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="3">
+        <v>4</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2.1728561533732701E-2</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="2">
+        <v>-1.461677087881101</v>
+      </c>
+      <c r="E58" s="2">
+        <v>8.3048912261885072E-2</v>
+      </c>
+      <c r="F58" s="2">
+        <v>-17.600195451950924</v>
+      </c>
+      <c r="G58" s="2">
+        <v>3.9984710758808774E-4</v>
+      </c>
+      <c r="H58" s="2">
+        <v>-1.725975791866768</v>
+      </c>
+      <c r="I58" s="2">
+        <v>-1.1973783838954339</v>
+      </c>
+      <c r="J58" s="2">
+        <v>-1.725975791866768</v>
+      </c>
+      <c r="K58" s="2">
+        <v>-1.1973783838954339</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.46983484252662161</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1.8768546003485556E-2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>25.033097526008</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1.3977762583559109E-4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.41010495264228169</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.52956473241096158</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0.41010495264228169</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.52956473241096158</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.70898751016734796</v>
+      </c>
+      <c r="E66" s="2">
+        <v>-5.8899987542345711E-3</v>
+      </c>
+      <c r="F66" s="2">
+        <v>-1.1577658797161805</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.66536327270135232</v>
+      </c>
+      <c r="E67" s="2">
+        <v>7.581200541073474E-3</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1.4901964635273262</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C68" s="2">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.61557896355651742</v>
+      </c>
+      <c r="E68" s="2">
+        <v>-3.9332446628392859E-4</v>
+      </c>
+      <c r="F68" s="2">
+        <v>-7.7313708495051772E-2</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C69" s="2">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.56368654035830001</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1.6272686917604418E-3</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.31986359370554041</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="3">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.52765367494729687</v>
+      </c>
+      <c r="E70" s="3">
+        <v>-2.9251460123147499E-3</v>
+      </c>
+      <c r="F70" s="3">
+        <v>-0.57498046902150324</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PS-250/Lab4/Lab4_Work.xlsx
+++ b/PS-250/Lab4/Lab4_Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Github\Fall_2018_Homework\PS-250\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF5AF9-F339-4575-A59C-333845D3E93D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA25ADD-AD5C-44FF-97BE-4FB1D9ACFB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="25770" windowHeight="13560" activeTab="1" xr2:uid="{8FADD37C-FCA6-8C41-8761-D81F0C976274}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="25770" windowHeight="13560" xr2:uid="{8FADD37C-FCA6-8C41-8761-D81F0C976274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3797,13 +3797,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1328737</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4202,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63EE814-A031-5F41-8CB1-158CBFFBE6E3}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4795,6 +4795,10 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="H27" s="1">
+        <f>I2 / ((G21 / (2 * 3.14))^2) / 100</f>
+        <v>9.8350723731148815</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -5047,8 +5051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428042F5-4FF8-407B-862A-BD5EBB764185}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -5175,7 +5179,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" ref="A31:B35" si="0">LN(A17)</f>
+        <f t="shared" ref="A31:B34" si="0">LN(A17)</f>
         <v>0.67294447324242579</v>
       </c>
       <c r="B31" s="1">

--- a/PS-250/Lab4/Lab4_Work.xlsx
+++ b/PS-250/Lab4/Lab4_Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Github\Fall_2018_Homework\PS-250\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA25ADD-AD5C-44FF-97BE-4FB1D9ACFB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B4E490-9393-4ABD-8409-AFEFDAA7C0E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="25770" windowHeight="13560" xr2:uid="{8FADD37C-FCA6-8C41-8761-D81F0C976274}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="25770" windowHeight="13560" activeTab="1" xr2:uid="{8FADD37C-FCA6-8C41-8761-D81F0C976274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4202,7 +4202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63EE814-A031-5F41-8CB1-158CBFFBE6E3}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -5051,8 +5051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428042F5-4FF8-407B-862A-BD5EBB764185}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
